--- a/detail scientist/data.xlsx
+++ b/detail scientist/data.xlsx
@@ -321,7 +321,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1130,36 +1130,36 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>Ion Stoica</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="C13" s="0" t="inlineStr"/>
+      <c r="D13" s="0" t="inlineStr"/>
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>University of California, Berkeley</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" s="0" t="inlineStr">
         <is>
           <t>United States</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
+      <c r="G13" s="0" t="inlineStr"/>
+      <c r="H13" s="0" t="inlineStr"/>
+      <c r="I13" s="0" t="inlineStr">
         <is>
           <t>https://people.eecs.berkeley.edu/~istoica/</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+      <c r="J13" s="0" t="inlineStr"/>
+      <c r="K13" s="0" t="inlineStr"/>
+      <c r="L13" s="0" t="inlineStr">
         <is>
           <t>Chord: A scalable peer-to-peer lookup service for internet applicationsIon Stoica;Robert Morris;David Karger;M. Frans Kaashoek.
 acm special interest group on data communication (2001), A view of cloud computingMichael Armbrust;Armando Fox;Rean Griffith;Anthony D. Joseph.
@@ -1174,17 +1174,410 @@
 networked systems design and implementation (2011)</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Computer Science</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr">
+      <c r="M13" s="0" t="inlineStr"/>
+      <c r="N13" s="0" t="inlineStr"/>
+      <c r="O13" s="0" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="P13" s="0" t="inlineStr"/>
+      <c r="Q13" s="0" t="inlineStr">
         <is>
           <t>Computer network, Operating system, The Internet</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Trevor Darrell</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr"/>
+      <c r="D14" s="0" t="inlineStr"/>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>University of California, Berkeley</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr"/>
+      <c r="H14" s="0" t="inlineStr"/>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>https://people.eecs.berkeley.edu/~trevor/</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr"/>
+      <c r="K14" s="0" t="inlineStr"/>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t>Fully convolutional networks for semantic segmentationJonathan Long;Evan Shelhamer;Trevor Darrell.
+computer vision and pattern recognition (2015), Rich Feature Hierarchies for Accurate Object Detection and Semantic SegmentationRoss Girshick;Jeff Donahue;Trevor Darrell;Jitendra Malik.
+computer vision and pattern recognition (2014), Caffe: Convolutional Architecture for Fast Feature EmbeddingYangqing Jia;Evan Shelhamer;Jeff Donahue;Sergey Karayev.
+acm multimedia (2014), Pfinder: real-time tracking of the human bodyC.R. Wren;A. Azarbayejani;T. Darrell;A.P. Pentland.
+IEEE Transactions on Pattern Analysis and Machine Intelligence (1997), Long-term recurrent convolutional networks for visual recognition and descriptionJeff Donahue;Lisa Anne Hendricks;Sergio Guadarrama;Marcus Rohrbach.
+computer vision and pattern recognition (2015), DeCAF: A Deep Convolutional Activation Feature for Generic Visual RecognitionJeff Donahue;Yangqing Jia;Oriol Vinyals;Judy Hoffman.
+international conference on machine learning (2014), Fully Convolutional Networks for Semantic SegmentationEvan Shelhamer;Jonathan Long;Trevor Darrell.
+IEEE Transactions on Pattern Analysis and Machine Intelligence (2017), Context Encoders: Feature Learning by InpaintingDeepak Pathak;Philipp Krahenbuhl;Jeff Donahue;Trevor Darrell.
+computer vision and pattern recognition (2016), Adversarial Discriminative Domain AdaptationEric Tzeng;Judy Hoffman;Kate Saenko;Trevor Darrell.
+computer vision and pattern recognition (2017), End-to-end training of deep visuomotor policiesSergey Levine;Chelsea Finn;Trevor Darrell;Pieter Abbeel.
+Journal of Machine Learning Research (2016)</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="inlineStr"/>
+      <c r="N14" s="0" t="inlineStr"/>
+      <c r="O14" s="0" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="P14" s="0" t="inlineStr"/>
+      <c r="Q14" s="0" t="inlineStr">
+        <is>
+          <t>Artificial intelligence, Machine learning, Computer vision</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Christos Faloutsos</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr"/>
+      <c r="D15" s="0" t="inlineStr"/>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>Carnegie Mellon University</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr"/>
+      <c r="H15" s="0" t="inlineStr"/>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>http://www.cs.cmu.edu/~christos/</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr"/>
+      <c r="K15" s="0" t="inlineStr"/>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>On power-law relationships of the Internet topologyMichalis Faloutsos;Petros Faloutsos;Christos Faloutsos.
+acm special interest group on data communication (1999), Graphs over time: densification laws, shrinking diameters and possible explanationsJure Leskovec;Jon Kleinberg;Christos Faloutsos.
+knowledge discovery and data mining (2005), Efficient Similarity Search In Sequence DatabasesRakesh Agrawal;Christos Faloutsos;Arun N. Swami.
+FODO '93 Proceedings of the 4th International Conference on Foundations of Data Organization and Algorithms (1993), QBIC project: querying images by content, using color, texture, and shapeCarlton Wayne Niblack;Ron Barber;Will Equitz;Myron D. Flickner.
+Storage and Retrieval for Image and Video Databases (1993), Graph evolution: Densification and shrinking diametersJure Leskovec;Jon Kleinberg;Christos Faloutsos.
+ACM Transactions on Knowledge Discovery From Data (2007), Fast subsequence matching in time-series databasesChristos Faloutsos;M. Ranganathan;Yannis Manolopoulos.
+international conference on management of data (1994), Cost-effective outbreak detection in networksJure Leskovec;Andreas Krause;Carlos Guestrin;Christos Faloutsos.
+knowledge discovery and data mining (2007), The R+-Tree: A Dynamic Index for Multi-Dimensional ObjectsTimos K. Sellis;Nick Roussopoulos;Christos Faloutsos.
+very large data bases (1987), Efficient and effective querying by image contentC. Faloutsos;R. Barber;M. Flickner;J. Hafner.
+intelligent information systems (1994), FastMap: a fast algorithm for indexing, data-mining and visualization of traditional and multimedia datasetsChristos Faloutsos;King-Ip Lin.
+international conference on management of data (1995)</t>
+        </is>
+      </c>
+      <c r="M15" s="0" t="inlineStr"/>
+      <c r="N15" s="0" t="inlineStr"/>
+      <c r="O15" s="0" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="P15" s="0" t="inlineStr"/>
+      <c r="Q15" s="0" t="inlineStr">
+        <is>
+          <t>Artificial intelligence, Operating system, Statistics</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>Jay S. Walker</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr"/>
+      <c r="D16" s="0" t="inlineStr"/>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>Walker Digital (United States)</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr"/>
+      <c r="H16" s="0" t="inlineStr"/>
+      <c r="I16" s="0" t="inlineStr"/>
+      <c r="J16" s="0" t="inlineStr"/>
+      <c r="K16" s="0" t="inlineStr"/>
+      <c r="L16" s="0" t="inlineStr">
+        <is>
+          <t>Method and apparatus for a cryptographically assisted commercial network system designed to facilitate and support expert-based commerceJay S. Walker;Bruce Schneier;James A. Jorasch.
+ (2006), Database driven online distributed tournament systemJay S. Walker;James A. Jorasch.
+ (1997), Method and apparatus for funds and credit line transfersJay S. Walker;Sanjay K. Jindal;James A. Jorasch.
+ (1997), Gaming device and method of operation thereofJay S. Walker;James A. Jorasch;Magdalena Mik.
+ (1999), Remote-auditing of computer generated outcomes and authenticated biling and access control system using cryptographic and other protocolsBruce Schneier;Jay Walker;James Jorasch.
+ (1995), System for adapting gaming devices to playing preferencesJay S. Walker;James A. Jorasch;Thomas M. Sparico.
+ (2000), Off-line remote system for lotteries and games of skillBruce Schneier;Jay S. Walker;James Jorasch.
+ (2006), Remote gaming deviceJay S. Walker;James A. Jorasch;Thomas M. Sparico.
+ (2001), Remote-auditing of computer generated outcomes, authenticated billing and access control, and software metering system using cryptographic and other protocolsBruce Schneier;Jay S. Walker;James Jorasch.
+ (1996), Automated play gaming deviceJay S. Walker;James A. Jorasch;Thomas M. Sparico.
+ (1996)</t>
+        </is>
+      </c>
+      <c r="M16" s="0" t="inlineStr"/>
+      <c r="N16" s="0" t="inlineStr"/>
+      <c r="O16" s="0" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="P16" s="0" t="inlineStr"/>
+      <c r="Q16" s="0" t="inlineStr">
+        <is>
+          <t>Operating system, The Internet, Computer network</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Trevor Darrell</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr"/>
+      <c r="D17" s="0" t="inlineStr"/>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>University of California, Berkeley</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr"/>
+      <c r="H17" s="0" t="inlineStr"/>
+      <c r="I17" s="0" t="inlineStr"/>
+      <c r="J17" s="0" t="inlineStr"/>
+      <c r="K17" s="0" t="inlineStr"/>
+      <c r="L17" s="0" t="inlineStr">
+        <is>
+          <t>Fully convolutional networks for semantic segmentationJonathan Long;Evan Shelhamer;Trevor Darrell.
+computer vision and pattern recognition (2015), Rich Feature Hierarchies for Accurate Object Detection and Semantic SegmentationRoss Girshick;Jeff Donahue;Trevor Darrell;Jitendra Malik.
+computer vision and pattern recognition (2014), Caffe: Convolutional Architecture for Fast Feature EmbeddingYangqing Jia;Evan Shelhamer;Jeff Donahue;Sergey Karayev.
+acm multimedia (2014), Pfinder: real-time tracking of the human bodyC.R. Wren;A. Azarbayejani;T. Darrell;A.P. Pentland.
+IEEE Transactions on Pattern Analysis and Machine Intelligence (1997), Long-term recurrent convolutional networks for visual recognition and descriptionJeff Donahue;Lisa Anne Hendricks;Sergio Guadarrama;Marcus Rohrbach.
+computer vision and pattern recognition (2015), DeCAF: A Deep Convolutional Activation Feature for Generic Visual RecognitionJeff Donahue;Yangqing Jia;Oriol Vinyals;Judy Hoffman.
+international conference on machine learning (2014), Fully Convolutional Networks for Semantic SegmentationEvan Shelhamer;Jonathan Long;Trevor Darrell.
+IEEE Transactions on Pattern Analysis and Machine Intelligence (2017), Context Encoders: Feature Learning by InpaintingDeepak Pathak;Philipp Krahenbuhl;Jeff Donahue;Trevor Darrell.
+computer vision and pattern recognition (2016), Adversarial Discriminative Domain AdaptationEric Tzeng;Judy Hoffman;Kate Saenko;Trevor Darrell.
+computer vision and pattern recognition (2017), End-to-end training of deep visuomotor policiesSergey Levine;Chelsea Finn;Trevor Darrell;Pieter Abbeel.
+Journal of Machine Learning Research (2016)</t>
+        </is>
+      </c>
+      <c r="M17" s="0" t="inlineStr"/>
+      <c r="N17" s="0" t="inlineStr"/>
+      <c r="O17" s="0" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="P17" s="0" t="inlineStr"/>
+      <c r="Q17" s="0" t="inlineStr">
+        <is>
+          <t>Artificial intelligence, Machine learning, Computer vision</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Christos Faloutsos</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr"/>
+      <c r="D18" s="0" t="inlineStr"/>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>Carnegie Mellon University</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr"/>
+      <c r="H18" s="0" t="inlineStr"/>
+      <c r="I18" s="0" t="inlineStr"/>
+      <c r="J18" s="0" t="inlineStr"/>
+      <c r="K18" s="0" t="inlineStr"/>
+      <c r="L18" s="0" t="inlineStr">
+        <is>
+          <t>On power-law relationships of the Internet topologyMichalis Faloutsos;Petros Faloutsos;Christos Faloutsos.
+acm special interest group on data communication (1999), Graphs over time: densification laws, shrinking diameters and possible explanationsJure Leskovec;Jon Kleinberg;Christos Faloutsos.
+knowledge discovery and data mining (2005), Efficient Similarity Search In Sequence DatabasesRakesh Agrawal;Christos Faloutsos;Arun N. Swami.
+FODO '93 Proceedings of the 4th International Conference on Foundations of Data Organization and Algorithms (1993), QBIC project: querying images by content, using color, texture, and shapeCarlton Wayne Niblack;Ron Barber;Will Equitz;Myron D. Flickner.
+Storage and Retrieval for Image and Video Databases (1993), Graph evolution: Densification and shrinking diametersJure Leskovec;Jon Kleinberg;Christos Faloutsos.
+ACM Transactions on Knowledge Discovery From Data (2007), Fast subsequence matching in time-series databasesChristos Faloutsos;M. Ranganathan;Yannis Manolopoulos.
+international conference on management of data (1994), Cost-effective outbreak detection in networksJure Leskovec;Andreas Krause;Carlos Guestrin;Christos Faloutsos.
+knowledge discovery and data mining (2007), The R+-Tree: A Dynamic Index for Multi-Dimensional ObjectsTimos K. Sellis;Nick Roussopoulos;Christos Faloutsos.
+very large data bases (1987), Efficient and effective querying by image contentC. Faloutsos;R. Barber;M. Flickner;J. Hafner.
+intelligent information systems (1994), FastMap: a fast algorithm for indexing, data-mining and visualization of traditional and multimedia datasetsChristos Faloutsos;King-Ip Lin.
+international conference on management of data (1995)</t>
+        </is>
+      </c>
+      <c r="M18" s="0" t="inlineStr"/>
+      <c r="N18" s="0" t="inlineStr"/>
+      <c r="O18" s="0" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="P18" s="0" t="inlineStr"/>
+      <c r="Q18" s="0" t="inlineStr">
+        <is>
+          <t>Artificial intelligence, Operating system, Statistics</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Gilbert Laporte</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr"/>
+      <c r="D19" s="0" t="inlineStr"/>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>HEC Montréal</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr"/>
+      <c r="H19" s="0" t="inlineStr"/>
+      <c r="I19" s="0" t="inlineStr"/>
+      <c r="J19" s="0" t="inlineStr"/>
+      <c r="K19" s="0" t="inlineStr"/>
+      <c r="L19" s="0" t="inlineStr">
+        <is>
+          <t>The vehicle routing problem: An overview of exact and approximate algorithmsGilbert Laporte.
+ (1992), A tabu search heuristic for the vehicle routing problemMichel Gendreau;Alain Hertz;Gilbert Laporte.
+Management Science (1994), A tabu search heuristic for periodic and multi-depot vehicle routing problemsJean-François Cordeau;Michel Gendreau;Gilbert Laporte.
+Networks (1997), A unified tabu search heuristic for vehicle routing problems with time windowsJean-François Cordeau;Gilbert Laporte;Anne Mercier.
+ (2001), The traveling salesman problem: An overview of exact and approximate algorithmsGilbert Laporte.
+ (1992), Fifty Years of Vehicle RoutingGilbert Laporte.
+ (2009), The Pollution-Routing ProblemTolga Bektaş;Gilbert Laporte.
+ (2011), Classical and modern heuristics for the vehicle routing problemGilbert Laporte;Michel Gendreau;Jean-Yves Potvin;Frédéric Semet.
+International Transactions in Operational Research (2000), Metaheuristics: A bibliographyIbrahim H. Osman;Gilbert Laporte.
+ (1996), Ambulance location and relocation modelsLuce Brotcorne;Gilbert Laporte;Gilbert Laporte;Frédéric Semet;Frédéric Semet.
+ (2003)</t>
+        </is>
+      </c>
+      <c r="M19" s="0" t="inlineStr"/>
+      <c r="N19" s="0" t="inlineStr"/>
+      <c r="O19" s="0" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="P19" s="0" t="inlineStr"/>
+      <c r="Q19" s="0" t="inlineStr">
+        <is>
+          <t>Mathematical optimization, Statistics, Algorithm</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>23</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Dacheng Tao</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>University of Sydney</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>DehazeNet: An End-to-End System for Single Image Haze RemovalBolun Cai;Xiangmin Xu;Kui Jia;Chunmei Qing.
+IEEE Transactions on Image Processing (2016), General Tensor Discriminant Analysis and Gabor Features for Gait RecognitionDacheng Tao;Xuelong Li;Xindong Wu;S.J. Maybank.
+IEEE Transactions on Pattern Analysis and Machine Intelligence (2007), Identifying the Best Machine Learning Algorithms for Brain Tumor Segmentation, Progression Assessment, and Overall Survival Prediction in the BRATS ChallengeSpyridon Bakas;Mauricio Reyes;Andras Jakab;Stefan Bauer.
+arXiv: Computer Vision and Pattern Recognition (2018), Asymmetric bagging and random subspace for support vector machines-based relevance feedback in image retrievalDacheng Tao;Xiaoou Tang;Xuelong Li;Xindong Wu.
+IEEE Transactions on Pattern Analysis and Machine Intelligence (2006), A Survey on Multi-view LearningChang Xu;Dacheng Tao;Chao Xu.
+arXiv: Learning (2013), Deep Ordinal Regression Network for Monocular Depth EstimationHuan Fu;Mingming Gong;Chaohui Wang;Kayhan Batmanghelich.
+computer vision and pattern recognition (2018), NTIRE 2017 Challenge on Single Image Super-Resolution: Methods and ResultsRadu Timofte;Eirikur Agustsson;Luc Van Gool;Ming-Hsuan Yang.
+computer vision and pattern recognition (2017), A survey of graph edit distanceXinbo Gao;Bing Xiao;Dacheng Tao;Xuelong Li.
+Pattern Analysis and Applications (2010), MUlti-Store Tracker (MUSTer): A cognitive psychology inspired approach to object trackingZhibin Hong;Zhe Chen;Chaohui Wang;Xue Mei.
+computer vision and pattern recognition (2015), GoDec: Randomized Low-rank &amp; Sparse Matrix Decomposition in Noisy CaseTianyi Zhou;Dacheng Tao.
+international conference on machine learning (2011)</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Artificial intelligence, Machine learning, Statistics</t>
         </is>
       </c>
     </row>
